--- a/TX_UT/Book1.xlsx
+++ b/TX_UT/Book1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>X</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +98,26 @@
   </si>
   <si>
     <t>CentY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y=ax+b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x=-b/a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b=-ax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(y-b)/a=x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x2=(y-b)/a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K32"/>
+  <dimension ref="B4:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -839,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -851,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -909,178 +930,318 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D27">
+        <f>D$23-$D$25</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29">
         <f>ATAN2(D$23-$D$25,D$24-$D$26)</f>
         <v>-2.3561944901923448</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <f>ATAN2(E$23-$D$25,E$24-$D$26)</f>
-        <v>-2.0344439357957027</v>
-      </c>
-      <c r="F27">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="F29">
         <f>ATAN2(F$23-$D$25,F$24-$D$26)</f>
         <v>-0.78539816339744828</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <f>ATAN2(G$23-$D$25,G$24-$D$26)</f>
         <v>0</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="H27:K27" si="10">ATAN2(H$23-$D$25,H$24-$D$26)</f>
+      <c r="H29">
+        <f t="shared" ref="H29:K29" si="10">ATAN2(H$23-$D$25,H$24-$D$26)</f>
         <v>0.78539816339744828</v>
       </c>
-      <c r="I27">
+      <c r="I29">
         <f t="shared" si="10"/>
-        <v>2.0344439357957027</v>
-      </c>
-      <c r="J27">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="10"/>
         <v>2.3561944901923448</v>
       </c>
-      <c r="K27">
+      <c r="K29">
         <f t="shared" si="10"/>
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
         <v>90</v>
       </c>
-      <c r="D28">
-        <f>IF(DEGREES(D27)+$B$28&gt;0,DEGREES(D27)+$B$28,DEGREES(D27)+$B$28+B29)</f>
+      <c r="D30">
+        <f>IF(DEGREES(D29)+$B$30&gt;0,DEGREES(D29)+$B$30,DEGREES(D29)+$B$30+B31)</f>
         <v>315</v>
       </c>
-      <c r="E28">
-        <f>DEGREES(E27)+$B$28</f>
-        <v>-26.56505117707799</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28:K28" si="11">DEGREES(F27)+$B$28</f>
+      <c r="E30">
+        <f>IF(DEGREES(E29)+$B$30&gt;0,DEGREES(E29)+$B$30,DEGREES(E29)+$B$30+C31)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:K30" si="11">DEGREES(F29)+$B$30</f>
         <v>45</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <f t="shared" si="11"/>
         <v>90</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <f t="shared" si="11"/>
         <v>135</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <f t="shared" si="11"/>
-        <v>206.56505117707798</v>
-      </c>
-      <c r="J28">
+        <v>180</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="K28">
+      <c r="K30">
         <f t="shared" si="11"/>
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
         <v>360</v>
       </c>
-      <c r="D29">
-        <f>IF(D27+$B$9&gt;0,D27+$B$9,D27+$B$9+$B$10)</f>
+      <c r="D31">
+        <f>IF(D29+$B$9&gt;0,D29+$B$9,D29+$B$9+$B$10)</f>
         <v>5.497787143782138</v>
       </c>
-      <c r="E29">
-        <f t="shared" ref="E29:K29" si="12">IF(E27+$B$9&gt;0,E27+$B$9,E27+$B$9+$B$10)</f>
-        <v>5.8195376981787801</v>
-      </c>
-      <c r="F29">
+      <c r="E31">
+        <f t="shared" ref="E31:K31" si="12">IF(E29+$B$9&gt;0,E29+$B$9,E29+$B$9+$B$10)</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="12"/>
         <v>0.78539816339744828</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <f t="shared" si="12"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <f t="shared" si="12"/>
         <v>2.3561944901923448</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <f t="shared" si="12"/>
-        <v>3.6052402625905993</v>
-      </c>
-      <c r="J29">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="12"/>
         <v>3.9269908169872414</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <f t="shared" si="12"/>
         <v>4.7123889803846897</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31">
-        <f>TAN(D29)</f>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <v>180</v>
+      </c>
+      <c r="D32">
+        <f>DEGREES(D31)</f>
+        <v>315</v>
+      </c>
+      <c r="E32">
+        <f>DEGREES(E31)</f>
+        <v>360</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:K32" si="13">DEGREES(F31)</f>
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="13"/>
+        <v>225</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="13"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33">
+        <f>TAN(D31)</f>
         <v>-1.0000000000000004</v>
       </c>
-      <c r="E31">
-        <f>TAN(E29)</f>
-        <v>-0.50000000000000033</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:K31" si="13">TAN(F29)</f>
+      <c r="E33">
+        <f>TAN(E31)</f>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:K33" si="14">TAN(F31)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="13"/>
+      <c r="G33">
+        <f t="shared" si="14"/>
         <v>1.6324552277619072E+16</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="13"/>
+      <c r="H33">
+        <f t="shared" si="14"/>
         <v>-1.0000000000000002</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="13"/>
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="13"/>
+      <c r="I33">
+        <f t="shared" si="14"/>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="14"/>
         <v>0.99999999999999967</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="13"/>
+      <c r="K33">
+        <f t="shared" si="14"/>
         <v>5441517425873024</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32">
-        <f>IF(AND(-$D$25&lt;=D31,D31&lt;$D$25),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <f>IF(AND(-$D$25&lt;=E31,E31&lt;$D$25),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <f>IF(AND(-$D$25&lt;=F31,F31&lt;$D$25),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:K32" si="14">IF(AND(-$D$25&lt;=G31,G31&lt;$D$25),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="14"/>
-        <v>0</v>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34">
+        <f>IF(AND(-$D$25&lt;=D33,D33&lt;$D$25),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f>IF(AND(-$D$25&lt;=E33,E33&lt;$D$25),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>IF(AND(-$D$25&lt;=F33,F33&lt;$D$25),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:K34" si="15">IF(AND(-$D$25&lt;=G33,G33&lt;$D$25),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="7" max="7" width="12.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>367</v>
+      </c>
+      <c r="E3">
+        <v>0.78539816339744795</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>416</v>
+      </c>
+      <c r="E4">
+        <f>TAN(E3)</f>
+        <v>0.99999999999999922</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5">
+        <f>DEGREES(E4)</f>
+        <v>57.29577951308228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6">
+        <v>270</v>
+      </c>
+      <c r="H6">
+        <f>G6*PI()/180</f>
+        <v>4.7123889803846897</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>-2.44492883420163</v>
+      </c>
+      <c r="C7">
+        <f>DEGREES(B7)</f>
+        <v>-140.08410340959401</v>
+      </c>
+      <c r="G7">
+        <f>RADIANS(G6)</f>
+        <v>4.7123889803846897</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8">
+        <f>TAN(G7)</f>
+        <v>5441517425873024</v>
       </c>
     </row>
   </sheetData>
